--- a/SampleData/sample_category.xlsx
+++ b/SampleData/sample_category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkawa\vscode-workspace\python_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBACE71-5778-422B-9883-998F001BF7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11F31C6-5864-4A57-8438-32674E9418E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9108629-7491-4944-B0F9-3B5BDBF67765}"/>
   </bookViews>
@@ -67,18 +67,12 @@
     <t>Query takes 10 seconds to return 50 rows from user table.</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>New users are not being saved due to constraint violation.</t>
   </si>
   <si>
     <t>SQL join returns duplicate rows for valid inputs.</t>
   </si>
   <si>
-    <t>Database migration script failed due to syntax error.</t>
-  </si>
-  <si>
     <t>Stored procedure returns incorrect results for latest orders.</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>Build pipeline fails intermittently on Jenkins.</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DB migration script failed due to syntax error.</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF1A2D-7D49-4AF1-B449-A6B295CCE951}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1168,79 +1170,79 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
